--- a/SP_Sklad/TempLate/Shahmatka.xlsx
+++ b/SP_Sklad/TempLate/Shahmatka.xlsx
@@ -68,7 +68,7 @@
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -76,13 +76,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -306,33 +299,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -341,39 +324,36 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,11 +726,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -768,160 +748,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="23" t="e">
+      <c r="A1" s="7"/>
+      <c r="B1" s="18" t="e">
         <f>"ЗВІТ ПО КОНТРАГЕНТУ "&amp;XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="e">
+      <c r="B2" s="18" t="e">
         <f>CONCATENATE("за період з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="e">
+      <c r="B7" s="8" t="e">
         <f>KADocList_idx</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="13" t="e">
+      <c r="C7" s="9" t="e">
         <f>KADocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="14" t="e">
+      <c r="D7" s="10" t="e">
         <f>KADocList_DocName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E7" s="15" t="e">
+      <c r="E7" s="11" t="e">
         <f>KADocList_PN</f>
         <v>#NAME?</v>
       </c>
-      <c r="F7" s="15" t="e">
+      <c r="F7" s="11" t="e">
         <f>KADocList_VN</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="15" t="e">
+      <c r="G7" s="11" t="e">
         <f>KADocList_PKO</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="15" t="e">
+      <c r="H7" s="11" t="e">
         <f>KADocList_VKO</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="11" t="e">
         <f>KADocList_PDP</f>
         <v>#NAME?</v>
       </c>
-      <c r="J7" s="15" t="e">
+      <c r="J7" s="11" t="e">
         <f>KADocList_PVK</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="16" t="e">
+      <c r="K7" s="12" t="e">
         <f>KADocList_SALDO</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
@@ -935,124 +915,8 @@
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B11:D11"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>

--- a/SP_Sklad/TempLate/Shahmatka.xlsx
+++ b/SP_Sklad/TempLate/Shahmatka.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -11,17 +11,17 @@
   </sheets>
   <definedNames>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="KADocList">Лист1!$A$7:$K$8</definedName>
+    <definedName name="KADocList">Лист1!$A$7:$M$8</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Дата</t>
   </si>
@@ -57,18 +57,24 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>СЗП</t>
+  </si>
+  <si>
+    <t>СЗК</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -513,7 +519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -548,7 +553,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -724,16 +728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
@@ -742,12 +746,12 @@
     <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="18" t="e">
         <f>"ЗВІТ ПО КОНТРАГЕНТУ "&amp;XLRPARAMS_KAID</f>
@@ -762,8 +766,10 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.25" customHeight="1">
       <c r="B2" s="18" t="e">
         <f>CONCATENATE("за період з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
@@ -777,8 +783,10 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="11.25" customHeight="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -789,9 +797,11 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="7.5" customHeight="1"/>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
@@ -820,10 +830,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="22"/>
@@ -833,9 +849,11 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="20"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" customHeight="1">
       <c r="B7" s="8" t="e">
         <f>KADocList_idx</f>
         <v>#NAME?</v>
@@ -872,12 +890,20 @@
         <f>KADocList_PVK</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="12" t="e">
+      <c r="K7" s="11" t="e">
+        <f>KADocList_SZP</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" s="11" t="e">
+        <f>KADocList_SZK</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" s="12" t="e">
         <f>KADocList_SALDO</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
@@ -901,9 +927,15 @@
       <c r="J8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -913,15 +945,17 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="14">
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
@@ -929,6 +963,8 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Shahmatka.xlsx
+++ b/SP_Sklad/TempLate/Shahmatka.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -734,7 +734,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -899,7 +899,7 @@
         <v>#NAME?</v>
       </c>
       <c r="M7" s="12" t="e">
-        <f>KADocList_SALDO</f>
+        <f>KADocList_CumulativeSaldo</f>
         <v>#NAME?</v>
       </c>
     </row>

--- a/SP_Sklad/TempLate/Shahmatka.xlsx
+++ b/SP_Sklad/TempLate/Shahmatka.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8379D37-ED8C-42D5-BD66-F02561167A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="KADocList">Лист1!$A$7:$M$8</definedName>
+    <definedName name="KADocList">Лист1!$A$7:$N$8</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Дата</t>
   </si>
@@ -63,18 +80,21 @@
   </si>
   <si>
     <t>СЗК</t>
+  </si>
+  <si>
+    <t>НП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -305,23 +325,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -338,7 +357,7 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,6 +459,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -487,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,9 +541,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,6 +593,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -728,16 +786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
@@ -746,216 +804,229 @@
     <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="18" t="e">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="17" t="e">
         <f>"ЗВІТ ПО КОНТРАГЕНТУ "&amp;XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B2" s="18" t="e">
+    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="e">
         <f>CONCATENATE("за період з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:13" ht="11.25" customHeight="1">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+    <row r="3" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1">
-      <c r="B5" s="19" t="s">
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="20"/>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1">
-      <c r="B7" s="8" t="e">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="e">
         <f>KADocList_idx</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="9" t="e">
+      <c r="C7" s="8" t="e">
         <f>KADocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="10" t="e">
+      <c r="D7" s="9" t="e">
         <f>KADocList_DocName</f>
         <v>#NAME?</v>
       </c>
-      <c r="E7" s="11" t="e">
+      <c r="E7" s="10" t="e">
         <f>KADocList_PN</f>
         <v>#NAME?</v>
       </c>
-      <c r="F7" s="11" t="e">
+      <c r="F7" s="10" t="e">
         <f>KADocList_VN</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="11" t="e">
+      <c r="G7" s="10" t="e">
         <f>KADocList_PKO</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="11" t="e">
+      <c r="H7" s="10" t="e">
         <f>KADocList_VKO</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="11" t="e">
+      <c r="I7" s="10" t="e">
         <f>KADocList_PDP</f>
         <v>#NAME?</v>
       </c>
-      <c r="J7" s="11" t="e">
+      <c r="J7" s="10" t="e">
         <f>KADocList_PVK</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="11" t="e">
+      <c r="K7" s="10" t="e">
         <f>KADocList_SZP</f>
         <v>#NAME?</v>
       </c>
-      <c r="L7" s="11" t="e">
+      <c r="L7" s="10" t="e">
         <f>KADocList_SZK</f>
         <v>#NAME?</v>
       </c>
-      <c r="M7" s="12" t="e">
+      <c r="M7" s="10" t="e">
+        <f>KADocList_NP</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="11" t="e">
         <f>KADocList_CumulativeSaldo</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+    <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="16"/>
+      <c r="M8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B1:M1"/>
+  <mergeCells count="15">
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B2:N2"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
@@ -965,6 +1036,7 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
